--- a/test_data/AssetManagement/common/firm.xlsx
+++ b/test_data/AssetManagement/common/firm.xlsx
@@ -1163,7 +1163,7 @@
       </c>
       <c r="J2" s="0" t="inlineStr">
         <is>
-          <t>{'code': 200, 'message': 'ok', 'data': 181}</t>
+          <t>{'code': 200, 'message': 'ok', 'data': 182}</t>
         </is>
       </c>
       <c r="K2" s="0" t="inlineStr">
